--- a/static/demo excel/printer_data.xlsx
+++ b/static/demo excel/printer_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shreyas1.Sawant\Desktop\PrintDesk\static\demo excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soham3.Patil\Desktop\PrintDesk\static\demo excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29D12CF-7CB8-4E0B-A6BE-7C3D69EC02B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BBC443-7EE7-4614-A454-0A7ECAF6E386}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{C0269F7C-CFA3-490D-A21E-C094018D40BA}"/>
   </bookViews>
@@ -822,12 +822,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -881,14 +893,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1205,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E035F1EC-D0CA-458D-9E9D-C7F563E71632}">
   <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1224,13 +1239,20 @@
     <col min="12" max="12" width="18.453125" customWidth="1"/>
     <col min="13" max="13" width="21" customWidth="1"/>
     <col min="14" max="14" width="12.90625" customWidth="1"/>
+    <col min="15" max="15" width="13.81640625" customWidth="1"/>
+    <col min="23" max="23" width="12.90625" customWidth="1"/>
+    <col min="24" max="24" width="11.36328125" customWidth="1"/>
+    <col min="25" max="25" width="10.26953125" customWidth="1"/>
+    <col min="29" max="29" width="16.08984375" customWidth="1"/>
+    <col min="31" max="31" width="15.81640625" customWidth="1"/>
+    <col min="32" max="32" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1242,7 +1264,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1251,10 +1273,10 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1331,10 +1353,10 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1346,7 +1368,7 @@
       <c r="E2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1355,10 +1377,10 @@
       <c r="H2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="7" t="s">
         <v>43</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -1429,10 +1451,10 @@
       <c r="AH2" s="1"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1444,7 +1466,7 @@
       <c r="E3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>68</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1453,10 +1475,10 @@
       <c r="H3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="7" t="s">
         <v>72</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -1531,10 +1553,10 @@
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1546,7 +1568,7 @@
       <c r="E4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1555,10 +1577,10 @@
       <c r="H4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="7" t="s">
         <v>72</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -1631,10 +1653,10 @@
       <c r="AH4" s="1"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1646,7 +1668,7 @@
       <c r="E5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1655,10 +1677,10 @@
       <c r="H5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="7" t="s">
         <v>72</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -1727,10 +1749,10 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1742,7 +1764,7 @@
       <c r="E6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>117</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1751,10 +1773,10 @@
       <c r="H6" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="7" t="s">
         <v>72</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -1821,8 +1843,8 @@
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
         <v>128</v>
       </c>
@@ -1832,7 +1854,7 @@
       <c r="E7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1841,10 +1863,10 @@
       <c r="H7" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="7" t="s">
         <v>72</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -1911,10 +1933,10 @@
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1926,7 +1948,7 @@
       <c r="E8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1935,10 +1957,10 @@
       <c r="H8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="7" t="s">
         <v>72</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -2013,10 +2035,10 @@
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2028,7 +2050,7 @@
       <c r="E9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>138</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -2037,10 +2059,10 @@
       <c r="H9" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="7" t="s">
         <v>72</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -2109,10 +2131,10 @@
       <c r="AH9" s="1"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2124,7 +2146,7 @@
       <c r="E10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -2133,10 +2155,10 @@
       <c r="H10" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="7" t="s">
         <v>72</v>
       </c>
       <c r="K10" s="1" t="s">
@@ -2211,10 +2233,10 @@
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2226,7 +2248,7 @@
       <c r="E11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>156</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -2235,10 +2257,10 @@
       <c r="H11" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="7" t="s">
         <v>72</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -2313,10 +2335,10 @@
       <c r="AH11" s="1"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2328,7 +2350,7 @@
       <c r="E12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="4" t="s">
         <v>174</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -2337,10 +2359,10 @@
       <c r="H12" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="7" t="s">
         <v>72</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -2409,10 +2431,10 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
         <v>186</v>
       </c>
@@ -2422,7 +2444,7 @@
       <c r="E13" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="4" t="s">
         <v>188</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -2431,10 +2453,10 @@
       <c r="H13" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="7" t="s">
         <v>72</v>
       </c>
       <c r="K13" s="1" t="s">
@@ -2503,10 +2525,10 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
         <v>198</v>
       </c>
@@ -2516,7 +2538,7 @@
       <c r="E14" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="4" t="s">
         <v>188</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -2525,10 +2547,10 @@
       <c r="H14" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="7" t="s">
         <v>72</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -2603,10 +2625,10 @@
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
         <v>202</v>
       </c>
@@ -2616,7 +2638,7 @@
       <c r="E15" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="4" t="s">
         <v>188</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -2625,10 +2647,10 @@
       <c r="H15" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="7" t="s">
         <v>72</v>
       </c>
       <c r="K15" s="1" t="s">
@@ -2703,10 +2725,10 @@
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="1" t="s">
         <v>204</v>
       </c>
@@ -2716,7 +2738,7 @@
       <c r="E16" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="4" t="s">
         <v>188</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -2725,10 +2747,10 @@
       <c r="H16" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="7" t="s">
         <v>72</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -2803,10 +2825,10 @@
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2818,7 +2840,7 @@
       <c r="E17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="4" t="s">
         <v>208</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -2827,10 +2849,10 @@
       <c r="H17" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="7" t="s">
         <v>72</v>
       </c>
       <c r="K17" s="1" t="s">
@@ -2897,10 +2919,10 @@
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="1" t="s">
         <v>214</v>
       </c>
@@ -2910,7 +2932,7 @@
       <c r="E18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="4" t="s">
         <v>138</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -2919,10 +2941,10 @@
       <c r="H18" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="7" t="s">
         <v>72</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -2987,10 +3009,10 @@
       <c r="AH18" s="1"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -3002,7 +3024,7 @@
       <c r="E19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="4" t="s">
         <v>138</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -3011,10 +3033,10 @@
       <c r="H19" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="7" t="s">
         <v>72</v>
       </c>
       <c r="K19" s="1" t="s">
@@ -3085,10 +3107,10 @@
       <c r="AH19" s="1"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -3100,7 +3122,7 @@
       <c r="E20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="4" t="s">
         <v>138</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -3109,10 +3131,10 @@
       <c r="H20" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="7" t="s">
         <v>72</v>
       </c>
       <c r="K20" s="1" t="s">
@@ -3183,10 +3205,10 @@
       <c r="AH20" s="1"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -3198,7 +3220,7 @@
       <c r="E21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="4" t="s">
         <v>138</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -3207,10 +3229,10 @@
       <c r="H21" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="7" t="s">
         <v>72</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -3281,10 +3303,10 @@
       <c r="AH21" s="1"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -3296,7 +3318,7 @@
       <c r="E22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="4" t="s">
         <v>138</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -3305,10 +3327,10 @@
       <c r="H22" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="7" t="s">
         <v>72</v>
       </c>
       <c r="K22" s="1" t="s">
@@ -3379,10 +3401,10 @@
       <c r="AH22" s="1"/>
     </row>
     <row r="23" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="1" t="s">
         <v>233</v>
       </c>
@@ -3392,7 +3414,7 @@
       <c r="E23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="4" t="s">
         <v>234</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -3401,10 +3423,10 @@
       <c r="H23" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="7" t="s">
         <v>72</v>
       </c>
       <c r="K23" s="1" t="s">
@@ -3478,11 +3500,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="35" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -3494,7 +3516,7 @@
       <c r="E24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -3503,10 +3525,10 @@
       <c r="H24" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="7" t="s">
         <v>250</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -3579,10 +3601,10 @@
       </c>
     </row>
     <row r="25" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="1" t="s">
         <v>255</v>
       </c>
@@ -3592,7 +3614,7 @@
       <c r="E25" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="4" t="s">
         <v>188</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -3601,8 +3623,8 @@
       <c r="H25" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="1" t="s">
+      <c r="I25" s="6"/>
+      <c r="J25" s="7" t="s">
         <v>72</v>
       </c>
       <c r="K25" s="1" t="s">

--- a/static/demo excel/printer_data.xlsx
+++ b/static/demo excel/printer_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soham3.Patil\Desktop\PrintDesk\static\demo excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shreyas1.Sawant\Desktop\PrintDesk\static\demo excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BBC443-7EE7-4614-A454-0A7ECAF6E386}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B3E728-9D08-4422-8D03-231A473A7E35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{C0269F7C-CFA3-490D-A21E-C094018D40BA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="258">
   <si>
     <t>HostName</t>
   </si>
@@ -796,13 +796,16 @@
   </si>
   <si>
     <t>R9GY045603</t>
+  </si>
+  <si>
+    <t>PPGPPYSFDESIGNOFFICE1000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -819,6 +822,12 @@
       <sz val="9"/>
       <color rgb="FF656565"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -842,7 +851,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -889,11 +898,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -904,6 +922,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1218,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E035F1EC-D0CA-458D-9E9D-C7F563E71632}">
-  <dimension ref="A1:AH25"/>
+  <dimension ref="A1:AH26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3698,6 +3719,104 @@
         <v>91</v>
       </c>
     </row>
+    <row r="26" spans="1:34" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG26" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH26" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
